--- a/turbines.xlsx
+++ b/turbines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotr\Documents\Visual Studio 2017\Projects\Optimization24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{544A424C-532D-4FBB-913B-8CDC5DFC0715}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A7355B86-AC38-4A42-8CB1-6F52FBAD9E69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3F519FEB-DF76-422F-8C55-C338617B1580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>mST_in</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>RK</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>rtz2</t>
+  </si>
+  <si>
+    <t>rtz5</t>
+  </si>
+  <si>
+    <t>Wniosek: Bardziej się opłaca redukować TZ5 (choć róznice są małe)</t>
   </si>
 </sst>
 </file>
@@ -443,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48387D0-21FC-4565-8E27-6EC554AEF0FC}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,16 +472,33 @@
     <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1">
         <f>$B$2*C2+$B$3*C3+$B$4*C4+$B$5*C5+$B$6*C6</f>
-        <v>31.406689999999998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30.061399999999999</v>
+      </c>
+      <c r="D1">
+        <f>$B$2*D2+$B$3*D3+$B$4*D4+$B$5*D5+$B$6*D6</f>
+        <v>22.546050000000001</v>
+      </c>
+      <c r="E1">
+        <f>$B$2*E2+$B$3*E3+$B$4*E4+$B$5*E5+$B$6*E6</f>
+        <v>22.546050000000001</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -473,8 +508,25 @@
       <c r="C2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <f>D2*25+D9*15+D18*10</f>
+        <v>11750</v>
+      </c>
+      <c r="L2">
+        <f>E2*25+E9*15+E18*10</f>
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -484,8 +536,25 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <f>(150-D1-D8-D17)*90</f>
+        <v>405.12233681999845</v>
+      </c>
+      <c r="L3">
+        <f>(150-E1-E8-E17)*90</f>
+        <v>321.0888868199994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -495,8 +564,22 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>K2+K3</f>
+        <v>12155.122336819999</v>
+      </c>
+      <c r="L4">
+        <f>L2+L3</f>
+        <v>12071.08888682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -506,8 +589,14 @@
       <c r="C5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -515,15 +604,21 @@
         <v>4.4843000000000001E-2</v>
       </c>
       <c r="C6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -533,14 +628,22 @@
       </c>
       <c r="D8">
         <f>$B$9*D9+$B$10*D10+$B$11*D11+$B$12*D12+$B$13*D13+$B$14*D14+$B$15*D15</f>
-        <v>47.566668241999999</v>
+        <v>42.854565242</v>
+      </c>
+      <c r="E8">
+        <f>$B$9*E9+$B$10*E10+$B$11*E11+$B$12*E12+$B$13*E13+$B$14*E14+$B$15*E15</f>
+        <v>50.708070241999998</v>
       </c>
       <c r="F8">
         <f>C8-D8</f>
-        <v>3.1414019999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.8535049999999984</v>
+      </c>
+      <c r="G8">
+        <f>C8-E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -553,8 +656,11 @@
       <c r="D9">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -567,8 +673,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -581,8 +690,11 @@
       <c r="D11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -593,10 +705,13 @@
         <v>130</v>
       </c>
       <c r="D12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="E12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -607,10 +722,13 @@
         <v>70</v>
       </c>
       <c r="D13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -623,8 +741,11 @@
       <c r="D14">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -637,8 +758,14 @@
       <c r="D15">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -648,18 +775,26 @@
       </c>
       <c r="D17">
         <f>D18*$B$18+D19*$B$19+D20*$B$20+D21*$B$21+D22*$B$22+D23*$B$23+D24*$B$24</f>
-        <v>77.330105460000013</v>
+        <v>80.098025460000002</v>
+      </c>
+      <c r="E17">
+        <f>E18*$B$18+E19*$B$19+E20*$B$20+E21*$B$21+E22*$B$22+E23*$B$23+E24*$B$24</f>
+        <v>73.178225460000007</v>
       </c>
       <c r="F17">
         <f>C17-D17</f>
-        <v>2.7679199999999895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>C17-E17</f>
+        <v>6.9197999999999951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>0.25998700000000002</v>
       </c>
       <c r="C18">
@@ -668,12 +803,15 @@
       <c r="D18">
         <v>350</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>-0.156107</v>
       </c>
       <c r="C19">
@@ -682,12 +820,15 @@
       <c r="D19">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>-0.123528</v>
       </c>
       <c r="C20">
@@ -696,40 +837,49 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>-7.4769000000000002E-2</v>
       </c>
       <c r="C21">
         <v>170</v>
       </c>
       <c r="D21">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="E21">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>6.3627000000000003E-2</v>
       </c>
       <c r="C22">
         <v>150</v>
       </c>
       <c r="D22">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>-46.844909000000001</v>
       </c>
       <c r="C23">
@@ -738,12 +888,15 @@
       <c r="D23">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>-1.1842E-2</v>
       </c>
       <c r="C24">
@@ -751,6 +904,31 @@
       </c>
       <c r="D24">
         <v>20</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>C1+C8+C17</f>
+        <v>160.86749570199999</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:E26" si="0">D1+D8+D17</f>
+        <v>145.49864070199999</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>146.43234570200002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
